--- a/Code/Results/Cases/Case_5_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_119/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.28580268638768</v>
+        <v>10.15175217277664</v>
       </c>
       <c r="C2">
-        <v>11.67312090829557</v>
+        <v>7.591137565417258</v>
       </c>
       <c r="D2">
-        <v>5.370632493845439</v>
+        <v>6.636188441706111</v>
       </c>
       <c r="E2">
-        <v>29.33951283430115</v>
+        <v>16.3150468111069</v>
       </c>
       <c r="F2">
-        <v>39.77677164845567</v>
+        <v>36.77115165190033</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>27.65008779755575</v>
+        <v>28.50331753538476</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.25731692209767</v>
+        <v>11.09120877063395</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.35190488914473</v>
+        <v>9.94799364222359</v>
       </c>
       <c r="C3">
-        <v>10.81705058272783</v>
+        <v>7.305578535318151</v>
       </c>
       <c r="D3">
-        <v>5.375419766105146</v>
+        <v>6.626819512963642</v>
       </c>
       <c r="E3">
-        <v>27.15060590529255</v>
+        <v>15.39923975154767</v>
       </c>
       <c r="F3">
-        <v>37.91272261995626</v>
+        <v>36.27289477116938</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>26.6718620513894</v>
+        <v>28.26890353977643</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.34994493501842</v>
+        <v>10.93826670383468</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.74989086474155</v>
+        <v>9.825094547100854</v>
       </c>
       <c r="C4">
-        <v>10.26690378243221</v>
+        <v>7.127311570613736</v>
       </c>
       <c r="D4">
-        <v>5.378824393156655</v>
+        <v>6.620946187909641</v>
       </c>
       <c r="E4">
-        <v>25.74982167934268</v>
+        <v>14.81373973783732</v>
       </c>
       <c r="F4">
-        <v>36.75484548280611</v>
+        <v>35.97052100670538</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>26.07273402787467</v>
+        <v>28.12803250588073</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.76611075066192</v>
+        <v>10.84749309914064</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.49724279127266</v>
+        <v>9.775654383845565</v>
       </c>
       <c r="C5">
-        <v>10.03640754856391</v>
+        <v>7.054060930337442</v>
       </c>
       <c r="D5">
-        <v>5.380315648854265</v>
+        <v>6.618521889491574</v>
       </c>
       <c r="E5">
-        <v>25.16421421866108</v>
+        <v>14.56958767599028</v>
       </c>
       <c r="F5">
-        <v>36.27999455639844</v>
+        <v>35.84831636770147</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>25.82908196108433</v>
+        <v>28.07143124193673</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.52135890703769</v>
+        <v>10.81134135927829</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.45484485062293</v>
+        <v>9.767486197857814</v>
       </c>
       <c r="C6">
-        <v>9.997748974342366</v>
+        <v>7.041865241696153</v>
       </c>
       <c r="D6">
-        <v>5.380569185760171</v>
+        <v>6.618117457203905</v>
       </c>
       <c r="E6">
-        <v>25.06606837377621</v>
+        <v>14.52871993212616</v>
       </c>
       <c r="F6">
-        <v>36.20097637430052</v>
+        <v>35.82808916676542</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>25.7886578080411</v>
+        <v>28.06208225300238</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.48030202212949</v>
+        <v>10.80539053999745</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.74651337992761</v>
+        <v>9.824425065198854</v>
       </c>
       <c r="C7">
-        <v>10.26382094551667</v>
+        <v>7.126325954982056</v>
       </c>
       <c r="D7">
-        <v>5.378844100608736</v>
+        <v>6.620913618670878</v>
       </c>
       <c r="E7">
-        <v>25.74198442765753</v>
+        <v>14.81046911098301</v>
       </c>
       <c r="F7">
-        <v>36.74845311987097</v>
+        <v>35.96886864477614</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>26.06944585788859</v>
+        <v>28.1272658575189</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.76283776326821</v>
+        <v>10.84700207977248</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.96964762920603</v>
+        <v>10.08108961371379</v>
       </c>
       <c r="C8">
-        <v>11.38294660924476</v>
+        <v>7.493360986721521</v>
       </c>
       <c r="D8">
-        <v>5.372178201472813</v>
+        <v>6.632982797120013</v>
       </c>
       <c r="E8">
-        <v>28.59624993717359</v>
+        <v>16.00423940336701</v>
       </c>
       <c r="F8">
-        <v>39.13699558459152</v>
+        <v>36.59868708436414</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>27.31254380806378</v>
+        <v>28.42187816365405</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.94992089929326</v>
+        <v>11.03785534076233</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.14782658719241</v>
+        <v>10.59815332256745</v>
       </c>
       <c r="C9">
-        <v>13.39016637037968</v>
+        <v>8.184654637037276</v>
       </c>
       <c r="D9">
-        <v>5.363479156001568</v>
+        <v>6.655715116606745</v>
       </c>
       <c r="E9">
-        <v>33.76803277855564</v>
+        <v>18.17758843761275</v>
       </c>
       <c r="F9">
-        <v>43.70515661899243</v>
+        <v>37.85662320908641</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>29.75899566237852</v>
+        <v>29.02226980716637</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.07210830772821</v>
+        <v>11.43464489911199</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.62391628211141</v>
+        <v>10.98145360590112</v>
       </c>
       <c r="C10">
-        <v>14.76188850876668</v>
+        <v>8.669085516849982</v>
       </c>
       <c r="D10">
-        <v>5.360871993059681</v>
+        <v>6.671878370267782</v>
       </c>
       <c r="E10">
-        <v>37.34857736427841</v>
+        <v>19.80365641746469</v>
       </c>
       <c r="F10">
-        <v>46.98597619946391</v>
+        <v>38.78754424259912</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>31.56102849923757</v>
+        <v>29.47493120445522</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.51586589675922</v>
+        <v>11.73669980367531</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27106263463168</v>
+        <v>11.15556761358648</v>
       </c>
       <c r="C11">
-        <v>15.36650409862661</v>
+        <v>8.883309059300858</v>
       </c>
       <c r="D11">
-        <v>5.360818423095962</v>
+        <v>6.679121392432569</v>
       </c>
       <c r="E11">
-        <v>38.9406502635663</v>
+        <v>20.50222134586841</v>
       </c>
       <c r="F11">
-        <v>48.4636364321563</v>
+        <v>39.2109804315716</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>32.38286890055802</v>
+        <v>29.68286424505726</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.15025372543471</v>
+        <v>11.87571481866971</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.51287294450163</v>
+        <v>11.22138549805399</v>
       </c>
       <c r="C12">
-        <v>15.59295712816371</v>
+        <v>8.963471857356481</v>
       </c>
       <c r="D12">
-        <v>5.360993170217922</v>
+        <v>6.681848880390545</v>
       </c>
       <c r="E12">
-        <v>39.53932807686415</v>
+        <v>20.76087198558857</v>
       </c>
       <c r="F12">
-        <v>49.02136075107838</v>
+        <v>39.37119322328395</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>32.69455675018059</v>
+        <v>29.76184915611459</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.38752109854049</v>
+        <v>11.92853102948687</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46093494984674</v>
+        <v>11.20721678304492</v>
       </c>
       <c r="C13">
-        <v>15.54429264565498</v>
+        <v>8.946251110841345</v>
       </c>
       <c r="D13">
-        <v>5.360946281563929</v>
+        <v>6.681262139194143</v>
       </c>
       <c r="E13">
-        <v>39.41055994726159</v>
+        <v>20.70542792865352</v>
       </c>
       <c r="F13">
-        <v>48.90132007164388</v>
+        <v>39.33669644997202</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>32.62740439951594</v>
+        <v>29.74482815217316</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.33654850639796</v>
+        <v>11.91714926070671</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.29102009127259</v>
+        <v>11.16098524004246</v>
       </c>
       <c r="C14">
-        <v>15.38518286679611</v>
+        <v>8.889923717012195</v>
       </c>
       <c r="D14">
-        <v>5.360828684368192</v>
+        <v>6.679346088097268</v>
       </c>
       <c r="E14">
-        <v>38.98998128968591</v>
+        <v>20.52361834643389</v>
       </c>
       <c r="F14">
-        <v>48.50955526735071</v>
+        <v>39.22416462248172</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>32.40850083427991</v>
+        <v>29.68935772435225</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.16983159057576</v>
+        <v>11.88005687099317</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.18652710542961</v>
+        <v>11.1326497901735</v>
       </c>
       <c r="C15">
-        <v>15.28740697638689</v>
+        <v>8.855294605755059</v>
       </c>
       <c r="D15">
-        <v>5.360783112206648</v>
+        <v>6.678170475089659</v>
       </c>
       <c r="E15">
-        <v>38.73185219141428</v>
+        <v>20.41148992871482</v>
       </c>
       <c r="F15">
-        <v>48.26936055091431</v>
+        <v>39.1552145518269</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>32.2744845092846</v>
+        <v>29.65541108466839</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.06733530848052</v>
+        <v>11.85735772757747</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.58115458994051</v>
+        <v>10.97006292632463</v>
       </c>
       <c r="C16">
-        <v>14.72200881155925</v>
+        <v>8.654955173816955</v>
       </c>
       <c r="D16">
-        <v>5.360900897374511</v>
+        <v>6.671402855880358</v>
       </c>
       <c r="E16">
-        <v>37.24388035284449</v>
+        <v>19.75717871070619</v>
       </c>
       <c r="F16">
-        <v>46.8891316193485</v>
+        <v>38.7598598844659</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>31.50737435822821</v>
+        <v>29.46137903951747</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.47397783701946</v>
+        <v>11.72764231236643</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.2037121524615</v>
+        <v>10.8701991545724</v>
       </c>
       <c r="C17">
-        <v>14.37038007631058</v>
+        <v>8.530422552459211</v>
       </c>
       <c r="D17">
-        <v>5.361284269542519</v>
+        <v>6.667223388640825</v>
       </c>
       <c r="E17">
-        <v>36.32235927755925</v>
+        <v>19.34526785555446</v>
       </c>
       <c r="F17">
-        <v>46.03877847900063</v>
+        <v>38.51722005245452</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>31.03741052782786</v>
+        <v>29.34283121471909</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.10441010484622</v>
+        <v>11.64843719397132</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.9843099821194</v>
+        <v>10.81274099451772</v>
       </c>
       <c r="C18">
-        <v>14.16628822433704</v>
+        <v>8.458219986730962</v>
       </c>
       <c r="D18">
-        <v>5.361609120503577</v>
+        <v>6.664809112956458</v>
       </c>
       <c r="E18">
-        <v>35.78879291075838</v>
+        <v>19.10447308472854</v>
       </c>
       <c r="F18">
-        <v>45.54825837334871</v>
+        <v>38.37766329313547</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>30.76728108794995</v>
+        <v>29.27483801834716</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.88972004159466</v>
+        <v>11.60303528837532</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.90962086819356</v>
+        <v>10.7932858390271</v>
       </c>
       <c r="C19">
-        <v>14.09686143819243</v>
+        <v>8.433677184982223</v>
       </c>
       <c r="D19">
-        <v>5.361736145625812</v>
+        <v>6.663989886885369</v>
       </c>
       <c r="E19">
-        <v>35.60750002112638</v>
+        <v>19.02227757645135</v>
       </c>
       <c r="F19">
-        <v>45.38192631190817</v>
+        <v>38.33041624344048</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>30.67584703630187</v>
+        <v>29.25185108178416</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.816657575706</v>
+        <v>11.58769132416084</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.2441286431123</v>
+        <v>10.88083239359311</v>
       </c>
       <c r="C20">
-        <v>14.40800049789216</v>
+        <v>8.543739316717179</v>
       </c>
       <c r="D20">
-        <v>5.361232445415631</v>
+        <v>6.667669368414418</v>
       </c>
       <c r="E20">
-        <v>36.42081508020212</v>
+        <v>19.3895172117074</v>
       </c>
       <c r="F20">
-        <v>46.12944526754497</v>
+        <v>38.5430500685966</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>31.08741920777306</v>
+        <v>29.35543124451828</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.14396935583076</v>
+        <v>11.65685311165559</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.34101424005903</v>
+        <v>11.17456830442773</v>
       </c>
       <c r="C21">
-        <v>15.43198266078452</v>
+        <v>8.906495016207822</v>
       </c>
       <c r="D21">
-        <v>5.360857644951741</v>
+        <v>6.67990928975514</v>
       </c>
       <c r="E21">
-        <v>39.11362005002675</v>
+        <v>20.57717954842848</v>
       </c>
       <c r="F21">
-        <v>48.62467274826256</v>
+        <v>39.25722256270539</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>32.47278342538073</v>
+        <v>29.70564443693215</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.21887851353254</v>
+        <v>11.89094752541211</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.03909251255305</v>
+        <v>11.36583591518838</v>
       </c>
       <c r="C22">
-        <v>16.08679886091794</v>
+        <v>9.137958790976116</v>
       </c>
       <c r="D22">
-        <v>5.361769203161014</v>
+        <v>6.687819903982555</v>
       </c>
       <c r="E22">
-        <v>40.84965592603901</v>
+        <v>21.31912438952083</v>
       </c>
       <c r="F22">
-        <v>50.24500936729084</v>
+        <v>39.72314191584233</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>33.38110989920654</v>
+        <v>29.93593717192336</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.90428187776618</v>
+        <v>12.04493178158788</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.66814294811716</v>
+        <v>11.26384241929145</v>
       </c>
       <c r="C23">
-        <v>15.73852344580076</v>
+        <v>9.014958637815997</v>
       </c>
       <c r="D23">
-        <v>5.361164534587717</v>
+        <v>6.683605832079004</v>
       </c>
       <c r="E23">
-        <v>39.92487711529161</v>
+        <v>20.92625772293321</v>
       </c>
       <c r="F23">
-        <v>49.38102271291472</v>
+        <v>39.47458940734364</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>32.89597241197458</v>
+        <v>29.81291158756361</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.53993895932053</v>
+        <v>11.9626754450662</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.22586385854234</v>
+        <v>10.87602524075135</v>
       </c>
       <c r="C24">
-        <v>14.39099835586309</v>
+        <v>8.537720692802306</v>
       </c>
       <c r="D24">
-        <v>5.361255552165992</v>
+        <v>6.6674677766191</v>
       </c>
       <c r="E24">
-        <v>36.3763150378035</v>
+        <v>19.36952448323956</v>
       </c>
       <c r="F24">
-        <v>46.08845994333002</v>
+        <v>38.53137249501633</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>31.06481011180626</v>
+        <v>29.34973426441904</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.12609155414312</v>
+        <v>11.65304785295698</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.58118611242226</v>
+        <v>10.45732393523929</v>
       </c>
       <c r="C25">
-        <v>12.86614165390896</v>
+        <v>8.001364724351708</v>
       </c>
       <c r="D25">
-        <v>5.365259745552602</v>
+        <v>6.649662225365116</v>
       </c>
       <c r="E25">
-        <v>32.41065330497111</v>
+        <v>17.59255190232298</v>
       </c>
       <c r="F25">
-        <v>42.48267416665775</v>
+        <v>37.51461691874105</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>29.09649406570545</v>
+        <v>28.85765071692642</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.5190703128435</v>
+        <v>11.32521958770316</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_119/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.15175217277664</v>
+        <v>13.28580268638782</v>
       </c>
       <c r="C2">
-        <v>7.591137565417258</v>
+        <v>11.67312090829544</v>
       </c>
       <c r="D2">
-        <v>6.636188441706111</v>
+        <v>5.370632493845771</v>
       </c>
       <c r="E2">
-        <v>16.3150468111069</v>
+        <v>29.33951283430104</v>
       </c>
       <c r="F2">
-        <v>36.77115165190033</v>
+        <v>39.77677164845561</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>28.50331753538476</v>
+        <v>27.65008779755576</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.09120877063395</v>
+        <v>13.25731692209769</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.94799364222359</v>
+        <v>12.35190488914464</v>
       </c>
       <c r="C3">
-        <v>7.305578535318151</v>
+        <v>10.81705058272795</v>
       </c>
       <c r="D3">
-        <v>6.626819512963642</v>
+        <v>5.375419766105086</v>
       </c>
       <c r="E3">
-        <v>15.39923975154767</v>
+        <v>27.15060590529257</v>
       </c>
       <c r="F3">
-        <v>36.27289477116938</v>
+        <v>37.91272261995626</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>28.26890353977643</v>
+        <v>26.67186205138946</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.93826670383468</v>
+        <v>12.34994493501843</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.825094547100854</v>
+        <v>11.74989086474138</v>
       </c>
       <c r="C4">
-        <v>7.127311570613736</v>
+        <v>10.26690378243219</v>
       </c>
       <c r="D4">
-        <v>6.620946187909641</v>
+        <v>5.378824393156707</v>
       </c>
       <c r="E4">
-        <v>14.81373973783732</v>
+        <v>25.74982167934263</v>
       </c>
       <c r="F4">
-        <v>35.97052100670538</v>
+        <v>36.75484548280619</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>28.12803250588073</v>
+        <v>26.07273402787487</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.84749309914064</v>
+        <v>11.76611075066178</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.775654383845565</v>
+        <v>11.49724279127265</v>
       </c>
       <c r="C5">
-        <v>7.054060930337442</v>
+        <v>10.03640754856388</v>
       </c>
       <c r="D5">
-        <v>6.618521889491574</v>
+        <v>5.380315648854447</v>
       </c>
       <c r="E5">
-        <v>14.56958767599028</v>
+        <v>25.16421421866115</v>
       </c>
       <c r="F5">
-        <v>35.84831636770147</v>
+        <v>36.27999455639865</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>28.07143124193673</v>
+        <v>25.8290819610845</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.81134135927829</v>
+        <v>11.52135890703759</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.767486197857814</v>
+        <v>11.45484485062309</v>
       </c>
       <c r="C6">
-        <v>7.041865241696153</v>
+        <v>9.997748974342187</v>
       </c>
       <c r="D6">
-        <v>6.618117457203905</v>
+        <v>5.380569185760417</v>
       </c>
       <c r="E6">
-        <v>14.52871993212616</v>
+        <v>25.06606837377633</v>
       </c>
       <c r="F6">
-        <v>35.82808916676542</v>
+        <v>36.20097637430047</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>28.06208225300238</v>
+        <v>25.78865780804103</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.80539053999745</v>
+        <v>11.48030202212956</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.824425065198854</v>
+        <v>11.74651337992766</v>
       </c>
       <c r="C7">
-        <v>7.126325954982056</v>
+        <v>10.26382094551663</v>
       </c>
       <c r="D7">
-        <v>6.620913618670878</v>
+        <v>5.378844100608691</v>
       </c>
       <c r="E7">
-        <v>14.81046911098301</v>
+        <v>25.74198442765767</v>
       </c>
       <c r="F7">
-        <v>35.96886864477614</v>
+        <v>36.74845311987116</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>28.1272658575189</v>
+        <v>26.0694458578887</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.84700207977248</v>
+        <v>11.76283776326821</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.08108961371379</v>
+        <v>12.96964762920598</v>
       </c>
       <c r="C8">
-        <v>7.493360986721521</v>
+        <v>11.38294660924476</v>
       </c>
       <c r="D8">
-        <v>6.632982797120013</v>
+        <v>5.37217820147295</v>
       </c>
       <c r="E8">
-        <v>16.00423940336701</v>
+        <v>28.59624993717359</v>
       </c>
       <c r="F8">
-        <v>36.59868708436414</v>
+        <v>39.13699558459157</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>28.42187816365405</v>
+        <v>27.31254380806383</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.03785534076233</v>
+        <v>12.94992089929325</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.59815332256745</v>
+        <v>15.14782658719263</v>
       </c>
       <c r="C9">
-        <v>8.184654637037276</v>
+        <v>13.39016637037958</v>
       </c>
       <c r="D9">
-        <v>6.655715116606745</v>
+        <v>5.363479156001646</v>
       </c>
       <c r="E9">
-        <v>18.17758843761275</v>
+        <v>33.76803277855582</v>
       </c>
       <c r="F9">
-        <v>37.85662320908641</v>
+        <v>43.70515661899262</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>29.02226980716637</v>
+        <v>29.75899566237856</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.43464489911199</v>
+        <v>15.07210830772832</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.98145360590112</v>
+        <v>16.62391628211153</v>
       </c>
       <c r="C10">
-        <v>8.669085516849982</v>
+        <v>14.76188850876661</v>
       </c>
       <c r="D10">
-        <v>6.671878370267782</v>
+        <v>5.360871993059706</v>
       </c>
       <c r="E10">
-        <v>19.80365641746469</v>
+        <v>37.34857736427853</v>
       </c>
       <c r="F10">
-        <v>38.78754424259912</v>
+        <v>46.98597619946388</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>29.47493120445522</v>
+        <v>31.5610284992375</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.73669980367531</v>
+        <v>16.51586589675927</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.15556761358648</v>
+        <v>17.27106263463159</v>
       </c>
       <c r="C11">
-        <v>8.883309059300858</v>
+        <v>15.36650409862661</v>
       </c>
       <c r="D11">
-        <v>6.679121392432569</v>
+        <v>5.360818423095996</v>
       </c>
       <c r="E11">
-        <v>20.50222134586841</v>
+        <v>38.94065026356633</v>
       </c>
       <c r="F11">
-        <v>39.2109804315716</v>
+        <v>48.46363643215636</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>29.68286424505726</v>
+        <v>32.38286890055809</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.87571481866971</v>
+        <v>17.15025372543463</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.22138549805399</v>
+        <v>17.51287294450167</v>
       </c>
       <c r="C12">
-        <v>8.963471857356481</v>
+        <v>15.59295712816371</v>
       </c>
       <c r="D12">
-        <v>6.681848880390545</v>
+        <v>5.360993170218074</v>
       </c>
       <c r="E12">
-        <v>20.76087198558857</v>
+        <v>39.5393280768642</v>
       </c>
       <c r="F12">
-        <v>39.37119322328395</v>
+        <v>49.02136075107835</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>29.76184915611459</v>
+        <v>32.69455675018059</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.92853102948687</v>
+        <v>17.38752109854052</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.20721678304492</v>
+        <v>17.46093494984667</v>
       </c>
       <c r="C13">
-        <v>8.946251110841345</v>
+        <v>15.54429264565487</v>
       </c>
       <c r="D13">
-        <v>6.681262139194143</v>
+        <v>5.360946281563958</v>
       </c>
       <c r="E13">
-        <v>20.70542792865352</v>
+        <v>39.41055994726149</v>
       </c>
       <c r="F13">
-        <v>39.33669644997202</v>
+        <v>48.90132007164389</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>29.74482815217316</v>
+        <v>32.62740439951593</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.91714926070671</v>
+        <v>17.33654850639788</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.16098524004246</v>
+        <v>17.29102009127253</v>
       </c>
       <c r="C14">
-        <v>8.889923717012195</v>
+        <v>15.38518286679597</v>
       </c>
       <c r="D14">
-        <v>6.679346088097268</v>
+        <v>5.360828684368335</v>
       </c>
       <c r="E14">
-        <v>20.52361834643389</v>
+        <v>38.98998128968599</v>
       </c>
       <c r="F14">
-        <v>39.22416462248172</v>
+        <v>48.50955526735081</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>29.68935772435225</v>
+        <v>32.40850083428</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.88005687099317</v>
+        <v>17.16983159057573</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.1326497901735</v>
+        <v>17.1865271054298</v>
       </c>
       <c r="C15">
-        <v>8.855294605755059</v>
+        <v>15.28740697638704</v>
       </c>
       <c r="D15">
-        <v>6.678170475089659</v>
+        <v>5.36078311220662</v>
       </c>
       <c r="E15">
-        <v>20.41148992871482</v>
+        <v>38.73185219141454</v>
       </c>
       <c r="F15">
-        <v>39.1552145518269</v>
+        <v>48.26936055091464</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>29.65541108466839</v>
+        <v>32.27448450928476</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.85735772757747</v>
+        <v>17.06733530848071</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.97006292632463</v>
+        <v>16.58115458994064</v>
       </c>
       <c r="C16">
-        <v>8.654955173816955</v>
+        <v>14.7220088115591</v>
       </c>
       <c r="D16">
-        <v>6.671402855880358</v>
+        <v>5.36090089737452</v>
       </c>
       <c r="E16">
-        <v>19.75717871070619</v>
+        <v>37.24388035284457</v>
       </c>
       <c r="F16">
-        <v>38.7598598844659</v>
+        <v>46.88913161934857</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>29.46137903951747</v>
+        <v>31.50737435822823</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.72764231236643</v>
+        <v>16.47397783701944</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.8701991545724</v>
+        <v>16.20371215246147</v>
       </c>
       <c r="C17">
-        <v>8.530422552459211</v>
+        <v>14.37038007631057</v>
       </c>
       <c r="D17">
-        <v>6.667223388640825</v>
+        <v>5.361284269542494</v>
       </c>
       <c r="E17">
-        <v>19.34526785555446</v>
+        <v>36.32235927755925</v>
       </c>
       <c r="F17">
-        <v>38.51722005245452</v>
+        <v>46.03877847900063</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>29.34283121471909</v>
+        <v>31.03741052782792</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.64843719397132</v>
+        <v>16.10441010484616</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.81274099451772</v>
+        <v>15.98430998211949</v>
       </c>
       <c r="C18">
-        <v>8.458219986730962</v>
+        <v>14.16628822433714</v>
       </c>
       <c r="D18">
-        <v>6.664809112956458</v>
+        <v>5.361609120503544</v>
       </c>
       <c r="E18">
-        <v>19.10447308472854</v>
+        <v>35.78879291075838</v>
       </c>
       <c r="F18">
-        <v>38.37766329313547</v>
+        <v>45.5482583733488</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>29.27483801834716</v>
+        <v>30.76728108795004</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.60303528837532</v>
+        <v>15.88972004159479</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.7932858390271</v>
+        <v>15.90962086819354</v>
       </c>
       <c r="C19">
-        <v>8.433677184982223</v>
+        <v>14.0968614381924</v>
       </c>
       <c r="D19">
-        <v>6.663989886885369</v>
+        <v>5.361736145625848</v>
       </c>
       <c r="E19">
-        <v>19.02227757645135</v>
+        <v>35.60750002112646</v>
       </c>
       <c r="F19">
-        <v>38.33041624344048</v>
+        <v>45.38192631190832</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>29.25185108178416</v>
+        <v>30.675847036302</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.58769132416084</v>
+        <v>15.81665757570601</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.88083239359311</v>
+        <v>16.2441286431123</v>
       </c>
       <c r="C20">
-        <v>8.543739316717179</v>
+        <v>14.40800049789217</v>
       </c>
       <c r="D20">
-        <v>6.667669368414418</v>
+        <v>5.361232445415647</v>
       </c>
       <c r="E20">
-        <v>19.3895172117074</v>
+        <v>36.42081508020203</v>
       </c>
       <c r="F20">
-        <v>38.5430500685966</v>
+        <v>46.129445267545</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>29.35543124451828</v>
+        <v>31.08741920777314</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.65685311165559</v>
+        <v>16.14396935583073</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.17456830442773</v>
+        <v>17.34101424005909</v>
       </c>
       <c r="C21">
-        <v>8.906495016207822</v>
+        <v>15.4319826607846</v>
       </c>
       <c r="D21">
-        <v>6.67990928975514</v>
+        <v>5.360857644951803</v>
       </c>
       <c r="E21">
-        <v>20.57717954842848</v>
+        <v>39.11362005002683</v>
       </c>
       <c r="F21">
-        <v>39.25722256270539</v>
+        <v>48.62467274826255</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>29.70564443693215</v>
+        <v>32.4727834253807</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.89094752541211</v>
+        <v>17.21887851353264</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.36583591518838</v>
+        <v>18.0390925125532</v>
       </c>
       <c r="C22">
-        <v>9.137958790976116</v>
+        <v>16.08679886091789</v>
       </c>
       <c r="D22">
-        <v>6.687819903982555</v>
+        <v>5.361769203161099</v>
       </c>
       <c r="E22">
-        <v>21.31912438952083</v>
+        <v>40.8496559260392</v>
       </c>
       <c r="F22">
-        <v>39.72314191584233</v>
+        <v>50.24500936729086</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>29.93593717192336</v>
+        <v>33.38110989920652</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.04493178158788</v>
+        <v>17.9042818777663</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.26384241929145</v>
+        <v>17.66814294811716</v>
       </c>
       <c r="C23">
-        <v>9.014958637815997</v>
+        <v>15.73852344580074</v>
       </c>
       <c r="D23">
-        <v>6.683605832079004</v>
+        <v>5.361164534587856</v>
       </c>
       <c r="E23">
-        <v>20.92625772293321</v>
+        <v>39.92487711529164</v>
       </c>
       <c r="F23">
-        <v>39.47458940734364</v>
+        <v>49.38102271291477</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>29.81291158756361</v>
+        <v>32.89597241197463</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.9626754450662</v>
+        <v>17.53993895932055</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.87602524075135</v>
+        <v>16.22586385854234</v>
       </c>
       <c r="C24">
-        <v>8.537720692802306</v>
+        <v>14.39099835586307</v>
       </c>
       <c r="D24">
-        <v>6.6674677766191</v>
+        <v>5.361255552166141</v>
       </c>
       <c r="E24">
-        <v>19.36952448323956</v>
+        <v>36.37631503780361</v>
       </c>
       <c r="F24">
-        <v>38.53137249501633</v>
+        <v>46.08845994332997</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>29.34973426441904</v>
+        <v>31.06481011180626</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.65304785295698</v>
+        <v>16.12609155414307</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.45732393523929</v>
+        <v>14.58118611242235</v>
       </c>
       <c r="C25">
-        <v>8.001364724351708</v>
+        <v>12.86614165390905</v>
       </c>
       <c r="D25">
-        <v>6.649662225365116</v>
+        <v>5.365259745552664</v>
       </c>
       <c r="E25">
-        <v>17.59255190232298</v>
+        <v>32.41065330497116</v>
       </c>
       <c r="F25">
-        <v>37.51461691874105</v>
+        <v>42.48267416665782</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>28.85765071692642</v>
+        <v>29.09649406570547</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.32521958770316</v>
+        <v>14.51907031284357</v>
       </c>
       <c r="L25">
         <v>0</v>
